--- a/data/trans_orig/P6601-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6601-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>161331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>142806</v>
+        <v>142176</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>181788</v>
+        <v>181772</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4316575278812261</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.382091658419744</v>
+        <v>0.3804068705460228</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4863945016322351</v>
+        <v>0.4863503180461215</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -765,19 +765,19 @@
         <v>107835</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96441</v>
+        <v>94803</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>118024</v>
+        <v>117985</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7154295088790038</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6398409605590428</v>
+        <v>0.6289720777459349</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.783030081500217</v>
+        <v>0.7827701015593275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>257</v>
@@ -786,19 +786,19 @@
         <v>269165</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>247472</v>
+        <v>245256</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>292830</v>
+        <v>292600</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5132097586483862</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4718471016770602</v>
+        <v>0.4676232537602465</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5583311911444586</v>
+        <v>0.557892957384176</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>91406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75042</v>
+        <v>74625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108465</v>
+        <v>108940</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2445674328484531</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.200782337282896</v>
+        <v>0.1996673539218822</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2902100243193894</v>
+        <v>0.2914808046900575</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -836,19 +836,19 @@
         <v>24741</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16634</v>
+        <v>16451</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35358</v>
+        <v>35042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1641421424780473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1103596928009324</v>
+        <v>0.1091460684177716</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2345844006216868</v>
+        <v>0.2324850495344195</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>110</v>
@@ -857,19 +857,19 @@
         <v>116147</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>97593</v>
+        <v>98314</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>135550</v>
+        <v>135879</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2214542917386739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1860784978264169</v>
+        <v>0.1874525307262314</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2584488189984179</v>
+        <v>0.2590770337022568</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>85872</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>69657</v>
+        <v>69557</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102852</v>
+        <v>102872</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2297602409211913</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1863737089961934</v>
+        <v>0.1861066587171483</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2751909768277665</v>
+        <v>0.2752445414827276</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>12174</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6389</v>
+        <v>6708</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20342</v>
+        <v>20250</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08076858922818861</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04238935991221053</v>
+        <v>0.04450347263268251</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1349565241397865</v>
+        <v>0.1343495942842363</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>91</v>
@@ -928,19 +928,19 @@
         <v>98046</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>79352</v>
+        <v>82232</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>115103</v>
+        <v>117446</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1869420545783217</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1512975705262135</v>
+        <v>0.1567895069999527</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2194629929321085</v>
+        <v>0.2239310047864877</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>35138</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25366</v>
+        <v>24653</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47582</v>
+        <v>47055</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09401479834912956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06787034542613658</v>
+        <v>0.06596260278030178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1273099880701878</v>
+        <v>0.1259004607490971</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -978,19 +978,19 @@
         <v>5978</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2116</v>
+        <v>2778</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11950</v>
+        <v>11968</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03965975941476027</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01403882260313613</v>
+        <v>0.01843141282422254</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07928104801816233</v>
+        <v>0.07940308550052386</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -999,19 +999,19 @@
         <v>41116</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29627</v>
+        <v>30109</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55511</v>
+        <v>54584</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07839389503461812</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05648870554924467</v>
+        <v>0.05740709433586634</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1058415077493448</v>
+        <v>0.1040730383067909</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>498148</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>463656</v>
+        <v>466164</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>533682</v>
+        <v>531321</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4436329400959905</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4129155217891206</v>
+        <v>0.4151496468610907</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4752787159239914</v>
+        <v>0.4731753516158388</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>414</v>
@@ -1124,19 +1124,19 @@
         <v>434408</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>412918</v>
+        <v>413019</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>454662</v>
+        <v>452790</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7491809610323178</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7121186771180935</v>
+        <v>0.7122938047363189</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7841114453890178</v>
+        <v>0.7808818268416776</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>885</v>
@@ -1145,19 +1145,19 @@
         <v>932556</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>887651</v>
+        <v>889575</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>973774</v>
+        <v>972855</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5476837569384587</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5213116822955558</v>
+        <v>0.5224411933153201</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5718907306670792</v>
+        <v>0.5713509600709776</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>268639</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>239257</v>
+        <v>239824</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>297057</v>
+        <v>301407</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2392408192612572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2130735206648846</v>
+        <v>0.2135791708967358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2645487754698958</v>
+        <v>0.2684221750143017</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>95</v>
@@ -1195,19 +1195,19 @@
         <v>100428</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82991</v>
+        <v>82605</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>119218</v>
+        <v>119415</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.173198132343783</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1431272747959948</v>
+        <v>0.1424602423366364</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2056031038939052</v>
+        <v>0.2059440437570892</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>354</v>
@@ -1216,19 +1216,19 @@
         <v>369067</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>336598</v>
+        <v>337666</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>403625</v>
+        <v>406073</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2167507520725498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1976817782575334</v>
+        <v>0.198308801060133</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2370463886469884</v>
+        <v>0.2384838509315388</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>268318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>240721</v>
+        <v>240675</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>298147</v>
+        <v>296878</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2389542116423714</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2143779681696297</v>
+        <v>0.2143364757924539</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2655194645472817</v>
+        <v>0.2643894826221378</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -1266,19 +1266,19 @@
         <v>30191</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19983</v>
+        <v>21137</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42388</v>
+        <v>42955</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05206737964836422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03446240126731604</v>
+        <v>0.03645319098053548</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07310298420760865</v>
+        <v>0.07408051889576375</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>291</v>
@@ -1287,19 +1287,19 @@
         <v>298509</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>267259</v>
+        <v>268343</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>331722</v>
+        <v>331035</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1753120794940835</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1569595048021362</v>
+        <v>0.1575960029913687</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1948180150869069</v>
+        <v>0.1944147113287935</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>87778</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68565</v>
+        <v>71245</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109143</v>
+        <v>107566</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07817202900038087</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06106141250723287</v>
+        <v>0.06344815592400845</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09719859506250933</v>
+        <v>0.09579429578242783</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -1337,19 +1337,19 @@
         <v>14817</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8825</v>
+        <v>8931</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23777</v>
+        <v>24192</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02555352697553499</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01522026295872139</v>
+        <v>0.01540302454083754</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04100634726157904</v>
+        <v>0.04172173525838616</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>99</v>
@@ -1358,19 +1358,19 @@
         <v>102595</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>85157</v>
+        <v>82469</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>124928</v>
+        <v>122989</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06025341149490794</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05001192076406085</v>
+        <v>0.04843354737917593</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07336941651529126</v>
+        <v>0.07223078281731692</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>284497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>264645</v>
+        <v>265136</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>303007</v>
+        <v>301056</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.704694595174831</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6555206001772306</v>
+        <v>0.6567382754820017</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.75054292784014</v>
+        <v>0.7457102516706359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>224</v>
@@ -1483,19 +1483,19 @@
         <v>234033</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>220587</v>
+        <v>218817</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>246644</v>
+        <v>246582</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8065191562067417</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7601822125415701</v>
+        <v>0.7540817508075808</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8499783259360533</v>
+        <v>0.8497624572641934</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>499</v>
@@ -1504,19 +1504,19 @@
         <v>518530</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>493749</v>
+        <v>493873</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>542214</v>
+        <v>540525</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7472761718360343</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7115620135933339</v>
+        <v>0.7117418647030475</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.781408130156707</v>
+        <v>0.7789739105977576</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>87795</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>71374</v>
+        <v>70778</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>107298</v>
+        <v>104598</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2174678685672765</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1767931843315413</v>
+        <v>0.1753155379968473</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2657753281891702</v>
+        <v>0.2590886614642618</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>41</v>
@@ -1554,19 +1554,19 @@
         <v>42268</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30490</v>
+        <v>30964</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>54662</v>
+        <v>55164</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1456639774345312</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1050739311472476</v>
+        <v>0.1067089665909606</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1883736872009829</v>
+        <v>0.1901036854464911</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>125</v>
@@ -1575,19 +1575,19 @@
         <v>130064</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>110539</v>
+        <v>109822</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>154576</v>
+        <v>152727</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1874405071541151</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1593023293954729</v>
+        <v>0.1582685706383345</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2227665695924104</v>
+        <v>0.2201013347873524</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>20190</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12945</v>
+        <v>13341</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30505</v>
+        <v>31827</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05001146627209418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03206373675522117</v>
+        <v>0.03304600416465377</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07556108765804458</v>
+        <v>0.07883391748330833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1625,19 +1625,19 @@
         <v>11624</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5751</v>
+        <v>5960</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19491</v>
+        <v>20108</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04005831554844577</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01981871559290783</v>
+        <v>0.02053807014566268</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06717077272526797</v>
+        <v>0.0692968638944796</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1646,19 +1646,19 @@
         <v>31814</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22243</v>
+        <v>22204</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45191</v>
+        <v>44369</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04584920083962425</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03205524321962573</v>
+        <v>0.03199899444567615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06512694283708585</v>
+        <v>0.06394202396881173</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>11234</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5298</v>
+        <v>4887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21542</v>
+        <v>21548</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0278260699857983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01312396796466219</v>
+        <v>0.01210427868830479</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05335804049814651</v>
+        <v>0.05337515295118978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7002</v>
+        <v>8161</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007758550810281234</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02412865908307277</v>
+        <v>0.0281244134353217</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1717,19 +1717,19 @@
         <v>13485</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6834</v>
+        <v>7040</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24547</v>
+        <v>23421</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01943412017022625</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009848238397214659</v>
+        <v>0.01014623951154108</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03537605746319865</v>
+        <v>0.033752763798122</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>943976</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>899238</v>
+        <v>898408</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>992689</v>
+        <v>986265</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4967386619168959</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4731963822693593</v>
+        <v>0.4727599377942517</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5223720187488318</v>
+        <v>0.5189916189001883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>741</v>
@@ -1842,19 +1842,19 @@
         <v>776275</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>747704</v>
+        <v>745563</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>802836</v>
+        <v>801375</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7604971340380345</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7325065410821872</v>
+        <v>0.7304087894599911</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7865176798845834</v>
+        <v>0.7850871541295982</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1641</v>
@@ -1863,19 +1863,19 @@
         <v>1720252</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1670105</v>
+        <v>1666712</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1771598</v>
+        <v>1773674</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5889063935591169</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5717392156594593</v>
+        <v>0.5705777378185081</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6064842879296803</v>
+        <v>0.6071949904434687</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>447842</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>414811</v>
+        <v>409690</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>490268</v>
+        <v>487085</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2356628895429793</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2182818092883003</v>
+        <v>0.2155869405717809</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2579886097081493</v>
+        <v>0.2563136758891666</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>159</v>
@@ -1913,19 +1913,19 @@
         <v>167437</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>144273</v>
+        <v>143724</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>192343</v>
+        <v>191571</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1640335270747439</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1413408707737071</v>
+        <v>0.1408029932328898</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1884337098652975</v>
+        <v>0.1876776367643768</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>589</v>
@@ -1934,19 +1934,19 @@
         <v>615278</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>571826</v>
+        <v>571765</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>662064</v>
+        <v>660039</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2106327329584978</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1957573259525437</v>
+        <v>0.1957366639233367</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2266492654377966</v>
+        <v>0.2259561123087039</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>374380</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>337425</v>
+        <v>339756</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>410040</v>
+        <v>411768</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1970062667701694</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1775597673277373</v>
+        <v>0.1787861267009364</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.215771143957104</v>
+        <v>0.2166801709328514</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>53</v>
@@ -1984,19 +1984,19 @@
         <v>53989</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>41254</v>
+        <v>41915</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>70703</v>
+        <v>71114</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05289157117794999</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04041547791024071</v>
+        <v>0.04106317987438281</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06926586217959946</v>
+        <v>0.06966811563771834</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>413</v>
@@ -2005,19 +2005,19 @@
         <v>428369</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>393220</v>
+        <v>389490</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>467557</v>
+        <v>467815</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1466468433089068</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1346139843453077</v>
+        <v>0.1333369328744108</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1600623894651169</v>
+        <v>0.1601504385566302</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>134150</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>113397</v>
+        <v>114843</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159600</v>
+        <v>160332</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07059218176995535</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05967183482090141</v>
+        <v>0.06043276387895635</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08398480182835795</v>
+        <v>0.08436989055856374</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2055,19 +2055,19 @@
         <v>23046</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15359</v>
+        <v>14987</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33729</v>
+        <v>34923</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02257776770927151</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01504678721544702</v>
+        <v>0.01468222681263694</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03304296943919451</v>
+        <v>0.03421321077103583</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>152</v>
@@ -2076,19 +2076,19 @@
         <v>157196</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>133208</v>
+        <v>134095</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>184904</v>
+        <v>184213</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05381403017347845</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04560216163016923</v>
+        <v>0.04590558983338206</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06329963740233251</v>
+        <v>0.06306315166163218</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>74429</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61498</v>
+        <v>59045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88779</v>
+        <v>87194</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4089739475874123</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3379240818257184</v>
+        <v>0.3244401181678251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4878239368549267</v>
+        <v>0.4791158687555818</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -2440,19 +2440,19 @@
         <v>81128</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68767</v>
+        <v>68897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92327</v>
+        <v>92950</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5915738786445007</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5014396106385753</v>
+        <v>0.5023857384184611</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6732398809147785</v>
+        <v>0.6777806150586252</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>145</v>
@@ -2461,19 +2461,19 @@
         <v>155557</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>138638</v>
+        <v>136939</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>174720</v>
+        <v>173783</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4874429061571871</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4344284067582043</v>
+        <v>0.4291050152018725</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5474908034018005</v>
+        <v>0.5445568002278397</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>46696</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35139</v>
+        <v>35704</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60296</v>
+        <v>59134</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2565845894963151</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.193081501633048</v>
+        <v>0.1961894016720113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.331317319654413</v>
+        <v>0.3249341266036252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -2511,19 +2511,19 @@
         <v>35242</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25767</v>
+        <v>25188</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45491</v>
+        <v>45503</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2569787619856039</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1878926850724389</v>
+        <v>0.1836693716365278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3317149898801076</v>
+        <v>0.3318022687797264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -2532,19 +2532,19 @@
         <v>81937</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65996</v>
+        <v>67922</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98345</v>
+        <v>98208</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2567539778665751</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2068014601057984</v>
+        <v>0.2128365409429517</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3081671870120252</v>
+        <v>0.3077371154593673</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>44422</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33211</v>
+        <v>34111</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57406</v>
+        <v>56983</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2440932307266967</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1824916055606604</v>
+        <v>0.1874328849720002</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3154382158982884</v>
+        <v>0.3131132541541398</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -2582,19 +2582,19 @@
         <v>10369</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5168</v>
+        <v>5173</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18496</v>
+        <v>18458</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07560788129003315</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03768192670988604</v>
+        <v>0.03771795358083362</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1348726576769327</v>
+        <v>0.134596382298055</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -2603,19 +2603,19 @@
         <v>54791</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41858</v>
+        <v>41559</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69980</v>
+        <v>69043</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1716897537482406</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1311633924789435</v>
+        <v>0.1302267848702766</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2192840730800889</v>
+        <v>0.216350102822072</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>16442</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8960</v>
+        <v>10000</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25370</v>
+        <v>27242</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09034823218957587</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04923288045227837</v>
+        <v>0.0549498601578115</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1394018107760221</v>
+        <v>0.1496908658232408</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -2653,19 +2653,19 @@
         <v>10401</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5005</v>
+        <v>5189</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17808</v>
+        <v>18269</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07583947807986229</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03649618179072513</v>
+        <v>0.03783858076867509</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1298539978710374</v>
+        <v>0.1332139024752019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -2674,19 +2674,19 @@
         <v>26843</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18153</v>
+        <v>18109</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38381</v>
+        <v>38586</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08411336222799727</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05688237029928136</v>
+        <v>0.05674604376115946</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1202692418739752</v>
+        <v>0.1209119804430839</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>379693</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>348226</v>
+        <v>350107</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>409351</v>
+        <v>410270</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4160902784401881</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3816064604011604</v>
+        <v>0.3836675919534286</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.448591372977207</v>
+        <v>0.449597803668841</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>322</v>
@@ -2799,19 +2799,19 @@
         <v>347145</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>324082</v>
+        <v>321706</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>373386</v>
+        <v>368459</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6060105858059519</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5657490558498466</v>
+        <v>0.5616019721363693</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6518191209573098</v>
+        <v>0.6432179421544612</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>677</v>
@@ -2820,19 +2820,19 @@
         <v>726838</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>688776</v>
+        <v>685794</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>766027</v>
+        <v>764524</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4893339232511841</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4637094834150408</v>
+        <v>0.461701830218957</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5157172078467173</v>
+        <v>0.5147057976446063</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>284478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>257356</v>
+        <v>256761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>312928</v>
+        <v>311463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3117476946489504</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2820263882579443</v>
+        <v>0.2813742656233905</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3429252140423054</v>
+        <v>0.3413195219352296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>150</v>
@@ -2870,19 +2870,19 @@
         <v>160465</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>137063</v>
+        <v>138653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180605</v>
+        <v>181761</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2801239697838704</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2392708771244066</v>
+        <v>0.2420460467998202</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3152818642796141</v>
+        <v>0.3172997085335947</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>425</v>
@@ -2891,19 +2891,19 @@
         <v>444943</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>411483</v>
+        <v>410268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>480813</v>
+        <v>484579</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2995518589126603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2770256566595996</v>
+        <v>0.2762075075087638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3237009038955763</v>
+        <v>0.3262366284785266</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>171336</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>147482</v>
+        <v>148751</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>196237</v>
+        <v>196465</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1877600439545986</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1616198951153307</v>
+        <v>0.1630102252088133</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2150479027650617</v>
+        <v>0.21529778640352</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -2941,19 +2941,19 @@
         <v>43049</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31869</v>
+        <v>31142</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56749</v>
+        <v>56513</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07515029396954567</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05563385544664241</v>
+        <v>0.05436375660915734</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09906630919928038</v>
+        <v>0.09865502690896372</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>208</v>
@@ -2962,19 +2962,19 @@
         <v>214385</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>189956</v>
+        <v>187106</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>242754</v>
+        <v>241370</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1443315731156392</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.127885196298959</v>
+        <v>0.1259666437791695</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1634311952776977</v>
+        <v>0.1624987756297305</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>77019</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60179</v>
+        <v>60793</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>96538</v>
+        <v>98680</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08440198295626289</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06594806517188501</v>
+        <v>0.06662034068069549</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1057921436942195</v>
+        <v>0.1081393865955219</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -3012,19 +3012,19 @@
         <v>22177</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13538</v>
+        <v>14345</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32234</v>
+        <v>32794</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03871515044063202</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02363355166528331</v>
+        <v>0.02504122964745603</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05627112620666712</v>
+        <v>0.05724812466872097</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>89</v>
@@ -3033,19 +3033,19 @@
         <v>99196</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>79809</v>
+        <v>79473</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123690</v>
+        <v>120711</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0667826447205164</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05373020166782107</v>
+        <v>0.05350413323967199</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08327233119369945</v>
+        <v>0.08126691326255113</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>175470</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>155693</v>
+        <v>156960</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>193711</v>
+        <v>193833</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5548350787175229</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4922978368162394</v>
+        <v>0.4963059332043044</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6125119789608048</v>
+        <v>0.6128978406709671</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>116</v>
@@ -3158,19 +3158,19 @@
         <v>131947</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>114736</v>
+        <v>114773</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>147148</v>
+        <v>147647</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5617236535020127</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.48845287483807</v>
+        <v>0.4886080887812803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.626435261022026</v>
+        <v>0.6285607151771182</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>274</v>
@@ -3179,19 +3179,19 @@
         <v>307418</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>283530</v>
+        <v>281577</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>331288</v>
+        <v>331607</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5577709264484996</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5144289377736496</v>
+        <v>0.5108862133303392</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6010800766972486</v>
+        <v>0.6016593050321476</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>94204</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>77607</v>
+        <v>77630</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>113732</v>
+        <v>112902</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.297870670218379</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.245392443822956</v>
+        <v>0.2454636269804173</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3596191816755466</v>
+        <v>0.3569940242227547</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>69</v>
@@ -3229,19 +3229,19 @@
         <v>77006</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>62595</v>
+        <v>63259</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>92530</v>
+        <v>94010</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3278302334602619</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2664782289168562</v>
+        <v>0.2693051081734343</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3939178957049398</v>
+        <v>0.4002163298476307</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>154</v>
@@ -3250,19 +3250,19 @@
         <v>171210</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>150535</v>
+        <v>150572</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>194633</v>
+        <v>195214</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3106391627609548</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.273126522988536</v>
+        <v>0.2731949069563183</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3531368979896223</v>
+        <v>0.3541919137251254</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>35631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24599</v>
+        <v>24953</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49005</v>
+        <v>48296</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1126645088559127</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07778297286966505</v>
+        <v>0.07890154207814495</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1549522602862795</v>
+        <v>0.1527109977810254</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -3300,19 +3300,19 @@
         <v>16888</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9853</v>
+        <v>9919</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26855</v>
+        <v>26812</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0718970233505323</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04194626185901532</v>
+        <v>0.04222694801769945</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1143277491695322</v>
+        <v>0.114142062446275</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -3321,19 +3321,19 @@
         <v>52519</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38637</v>
+        <v>39838</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67431</v>
+        <v>68666</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09528977844170855</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07010148309567847</v>
+        <v>0.07228100324127906</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1223450068489709</v>
+        <v>0.1245853381157229</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>10952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5783</v>
+        <v>5061</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20556</v>
+        <v>19093</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03462974220818528</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01828428715422614</v>
+        <v>0.01600270164670661</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06499868241977926</v>
+        <v>0.0603708762699515</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -3371,19 +3371,19 @@
         <v>9055</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3969</v>
+        <v>4632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16142</v>
+        <v>16363</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03854908968719317</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01689742614854447</v>
+        <v>0.01972036970669648</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06872045224998533</v>
+        <v>0.06966031159702579</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -3392,19 +3392,19 @@
         <v>20007</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12614</v>
+        <v>12144</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31618</v>
+        <v>29710</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03630013234883708</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02288715151210474</v>
+        <v>0.02203452641536566</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05736639613678559</v>
+        <v>0.05390504003918189</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>629592</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>586173</v>
+        <v>588740</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>666160</v>
+        <v>669451</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4462751527208319</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4154985184608785</v>
+        <v>0.4173180697083924</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4721956758928401</v>
+        <v>0.4745282428765271</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>512</v>
@@ -3517,19 +3517,19 @@
         <v>560220</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>527805</v>
+        <v>528942</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>590210</v>
+        <v>592524</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5929054375847578</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.558598833989873</v>
+        <v>0.5598023768357877</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6246449300203931</v>
+        <v>0.6270933226357918</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1096</v>
@@ -3538,19 +3538,19 @@
         <v>1189813</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1137387</v>
+        <v>1138328</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1239348</v>
+        <v>1239629</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5050900603621519</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4828345862255373</v>
+        <v>0.4832342978818619</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5261184863009182</v>
+        <v>0.5262376948553655</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>425377</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>392178</v>
+        <v>392962</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>464133</v>
+        <v>464482</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3015208295530273</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2779886559589612</v>
+        <v>0.2785443954492829</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3289925728868024</v>
+        <v>0.3292396034537676</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -3588,19 +3588,19 @@
         <v>272714</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>243852</v>
+        <v>244722</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>301896</v>
+        <v>303000</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2886245088013976</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2580794021467738</v>
+        <v>0.2589998558600973</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3195092673588364</v>
+        <v>0.320678072847032</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>658</v>
@@ -3609,19 +3609,19 @@
         <v>698091</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>650610</v>
+        <v>653447</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>744282</v>
+        <v>745733</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2963479833390011</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2761918366665911</v>
+        <v>0.2773961438312576</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3159567220774482</v>
+        <v>0.3165726514248838</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>251389</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>221717</v>
+        <v>225010</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>280672</v>
+        <v>285949</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1781925785769642</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1571603469568291</v>
+        <v>0.159494221113892</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1989496968271355</v>
+        <v>0.2026896502482457</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>66</v>
@@ -3659,19 +3659,19 @@
         <v>70306</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54668</v>
+        <v>55241</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>88672</v>
+        <v>89466</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07440794058541379</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05785769746910294</v>
+        <v>0.05846403851774902</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09384490729452762</v>
+        <v>0.09468623700684638</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>308</v>
@@ -3680,19 +3680,19 @@
         <v>321695</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>290209</v>
+        <v>287870</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>355506</v>
+        <v>354410</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.136563498310732</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1231971392071131</v>
+        <v>0.1222041186851001</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.150916497708946</v>
+        <v>0.1504511624093549</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>104413</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85496</v>
+        <v>83079</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>128151</v>
+        <v>126681</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07401143914917664</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06060204555351539</v>
+        <v>0.05888875537329525</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09083727532224829</v>
+        <v>0.08979546814548968</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -3730,19 +3730,19 @@
         <v>41633</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29739</v>
+        <v>30431</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55080</v>
+        <v>55663</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04406211302843086</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03147408805691467</v>
+        <v>0.03220653571643557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05829402322390276</v>
+        <v>0.05891098572829975</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>134</v>
@@ -3751,19 +3751,19 @@
         <v>146046</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>123127</v>
+        <v>121609</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>173370</v>
+        <v>170079</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06199845798811506</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05226874981243056</v>
+        <v>0.0516245763718321</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07359766387582158</v>
+        <v>0.07220061061227681</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>46434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36315</v>
+        <v>36340</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57688</v>
+        <v>58439</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3428422344568673</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2681285896811742</v>
+        <v>0.2683144074438796</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4259368537067995</v>
+        <v>0.4314881982246843</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -4115,19 +4115,19 @@
         <v>36557</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29270</v>
+        <v>28299</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45432</v>
+        <v>44468</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.528831355024403</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4234237892666496</v>
+        <v>0.4093665045576791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6572132120856919</v>
+        <v>0.6432740070620597</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -4136,19 +4136,19 @@
         <v>82991</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69665</v>
+        <v>69132</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98309</v>
+        <v>95578</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4056930555239608</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3405480580113115</v>
+        <v>0.3379439374959946</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4805735504119785</v>
+        <v>0.4672248899749873</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>50892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39508</v>
+        <v>40512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62329</v>
+        <v>63310</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3757610860472235</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2917088797265247</v>
+        <v>0.2991216242078339</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4602080114728478</v>
+        <v>0.4674532076373623</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -4186,19 +4186,19 @@
         <v>24701</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17245</v>
+        <v>17030</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31923</v>
+        <v>32711</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3573294618777895</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2494578262597269</v>
+        <v>0.246358693137028</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4618014629247408</v>
+        <v>0.4731941975657568</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>72</v>
@@ -4207,19 +4207,19 @@
         <v>75594</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62669</v>
+        <v>62484</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89349</v>
+        <v>91248</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3695325351023398</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3063510549616963</v>
+        <v>0.3054485057635253</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4367726183709453</v>
+        <v>0.4460576950632916</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>22152</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15090</v>
+        <v>13871</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31772</v>
+        <v>32275</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1635626820895101</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1114193082756244</v>
+        <v>0.1024165417590365</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2345890897526886</v>
+        <v>0.2382992901800516</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -4257,19 +4257,19 @@
         <v>3787</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1000</v>
+        <v>963</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9564</v>
+        <v>8671</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05477684400993679</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01446921716365906</v>
+        <v>0.0139275100044367</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1383509973419532</v>
+        <v>0.1254296780581006</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -4278,19 +4278,19 @@
         <v>25939</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17379</v>
+        <v>17491</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36989</v>
+        <v>37295</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1268009660121961</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08495725975349468</v>
+        <v>0.08550106892059582</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1808165648352892</v>
+        <v>0.1823144236729566</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>15959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9476</v>
+        <v>9404</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25413</v>
+        <v>25039</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1178339974063992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06996923699773376</v>
+        <v>0.06943107406630204</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1876333999069988</v>
+        <v>0.1848746112653991</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4328,19 +4328,19 @@
         <v>4083</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1020</v>
+        <v>1042</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9847</v>
+        <v>10253</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05906233908787072</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01474868498422782</v>
+        <v>0.01507892145566233</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1424491420863739</v>
+        <v>0.1483174294318471</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -4349,19 +4349,19 @@
         <v>20042</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13289</v>
+        <v>12930</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30142</v>
+        <v>30371</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09797344336150335</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06496207670223735</v>
+        <v>0.06320661129102237</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1473460794400011</v>
+        <v>0.1484641857141921</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>339646</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>313988</v>
+        <v>310007</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>372479</v>
+        <v>369658</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3701851203139541</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3422203202492098</v>
+        <v>0.3378809736408181</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4059703039868903</v>
+        <v>0.4028959425238417</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>331</v>
@@ -4474,19 +4474,19 @@
         <v>338689</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>312753</v>
+        <v>315856</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>363834</v>
+        <v>366954</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5237351511751893</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4836291520969699</v>
+        <v>0.48842848093326</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5626199212498132</v>
+        <v>0.5674437366449524</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>649</v>
@@ -4495,19 +4495,19 @@
         <v>678335</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>640134</v>
+        <v>639347</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>718612</v>
+        <v>716057</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4336672457438056</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4092452228476381</v>
+        <v>0.4087415077588919</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4594166271354069</v>
+        <v>0.4577830730042654</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>329146</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>300845</v>
+        <v>299906</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>359250</v>
+        <v>358706</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3587412028754972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3278948957310095</v>
+        <v>0.3268722408444668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3915514706086216</v>
+        <v>0.3909585159051116</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>198</v>
@@ -4545,19 +4545,19 @@
         <v>203373</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>179358</v>
+        <v>178045</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>227522</v>
+        <v>225789</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3144882741176803</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.277352728307912</v>
+        <v>0.2753221065608393</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3518319218151717</v>
+        <v>0.3491522183809673</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>505</v>
@@ -4566,19 +4566,19 @@
         <v>532519</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>493365</v>
+        <v>494703</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>569005</v>
+        <v>571935</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3404457329346231</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3154139586715553</v>
+        <v>0.3162695109331716</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3637716835001198</v>
+        <v>0.3656448326487454</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>174628</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>148926</v>
+        <v>150324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>199530</v>
+        <v>198718</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1903294184670695</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1623168123836846</v>
+        <v>0.1638405472041017</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.217470352030364</v>
+        <v>0.216585231879343</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>76</v>
@@ -4616,19 +4616,19 @@
         <v>76874</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>60272</v>
+        <v>62162</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94415</v>
+        <v>96357</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1188753002659303</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09320191970565719</v>
+        <v>0.09612494577383177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1460005546541169</v>
+        <v>0.1490030248747559</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>240</v>
@@ -4637,19 +4637,19 @@
         <v>251502</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>224241</v>
+        <v>224926</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>280352</v>
+        <v>280936</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1607881720818868</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1433601367780216</v>
+        <v>0.1437977126836881</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.179232518371007</v>
+        <v>0.1796058190791899</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>74083</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59225</v>
+        <v>58017</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>93108</v>
+        <v>93427</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08074425834347917</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06454993589582549</v>
+        <v>0.06323399667525477</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1014792767068369</v>
+        <v>0.101827625806336</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -4687,19 +4687,19 @@
         <v>27743</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18654</v>
+        <v>17880</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40055</v>
+        <v>38414</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0429012744412001</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02884551343826847</v>
+        <v>0.02764833630498968</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0619394579824703</v>
+        <v>0.05940164182182041</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>96</v>
@@ -4708,19 +4708,19 @@
         <v>101827</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>82056</v>
+        <v>84025</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>124414</v>
+        <v>123499</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06509884923968445</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.052459371696192</v>
+        <v>0.05371807859139147</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07953951513496277</v>
+        <v>0.0789544632202985</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>198202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>179661</v>
+        <v>178616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>217849</v>
+        <v>217532</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5738227718798866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5201433581147474</v>
+        <v>0.5171169856886617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.630701087106023</v>
+        <v>0.6297859524752348</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>172</v>
@@ -4833,19 +4833,19 @@
         <v>178981</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>163216</v>
+        <v>161656</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>196140</v>
+        <v>195828</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5802546975083371</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5291424515049489</v>
+        <v>0.5240853741231666</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6358819082694575</v>
+        <v>0.6348698545972244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>353</v>
@@ -4854,19 +4854,19 @@
         <v>377184</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>350414</v>
+        <v>349469</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>404453</v>
+        <v>400545</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5768569817498894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.53591588215181</v>
+        <v>0.534470138677573</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6185617396251273</v>
+        <v>0.6125852677635708</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>95062</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>77341</v>
+        <v>78913</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>112376</v>
+        <v>113990</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2752179689776261</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2239120222126363</v>
+        <v>0.2284631754671249</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3253426984045472</v>
+        <v>0.330016811964172</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>78</v>
@@ -4904,19 +4904,19 @@
         <v>78085</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>64684</v>
+        <v>62833</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>94339</v>
+        <v>93865</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2531512301659433</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2097061693687675</v>
+        <v>0.2037024405222514</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3058459341626367</v>
+        <v>0.3043084346643177</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>167</v>
@@ -4925,19 +4925,19 @@
         <v>173147</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>149345</v>
+        <v>149807</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>198909</v>
+        <v>194915</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2648081600698526</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2284050585347778</v>
+        <v>0.2291119451752889</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3042077071381436</v>
+        <v>0.2980983283323264</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>37179</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26106</v>
+        <v>26558</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50951</v>
+        <v>50458</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1076384208508</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07558030891280583</v>
+        <v>0.07688869030465502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1475088030305331</v>
+        <v>0.1460837130748427</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -4975,19 +4975,19 @@
         <v>32786</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23469</v>
+        <v>23704</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44033</v>
+        <v>45229</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1062931674921843</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07608661632899712</v>
+        <v>0.07684873272903851</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1427550572520905</v>
+        <v>0.1466333525643143</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -4996,19 +4996,19 @@
         <v>69966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54994</v>
+        <v>56345</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87216</v>
+        <v>89381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1070038082551084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0841060941821301</v>
+        <v>0.08617350174091333</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1333864757146082</v>
+        <v>0.1366967360647752</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>14963</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8513</v>
+        <v>7697</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24449</v>
+        <v>24539</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04332083829168722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02464671015718374</v>
+        <v>0.02228299552896015</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07078253457871435</v>
+        <v>0.07104390934940631</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -5046,19 +5046,19 @@
         <v>18600</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10956</v>
+        <v>10421</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29533</v>
+        <v>28967</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06030090483353527</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03552053215708044</v>
+        <v>0.0337854445910282</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09574486453801669</v>
+        <v>0.0939114556517224</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -5067,19 +5067,19 @@
         <v>33563</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23673</v>
+        <v>22910</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48860</v>
+        <v>47319</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05133104992514958</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03620436913730574</v>
+        <v>0.03503856990793633</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07472598668541856</v>
+        <v>0.0723687674884981</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>584282</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>547392</v>
+        <v>549372</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>624053</v>
+        <v>622604</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4178374883845718</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3914566114564741</v>
+        <v>0.392872329881829</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.446279269921102</v>
+        <v>0.4452430584136968</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>539</v>
@@ -5192,19 +5192,19 @@
         <v>554227</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>521268</v>
+        <v>518171</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>583090</v>
+        <v>584015</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5410997954767105</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.508920702776928</v>
+        <v>0.5058976747786514</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5692786677627738</v>
+        <v>0.5701817041944107</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1082</v>
@@ -5213,19 +5213,19 @@
         <v>1138509</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1084582</v>
+        <v>1089884</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1189733</v>
+        <v>1190860</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4699518863003191</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4476920638235274</v>
+        <v>0.449880442787732</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4910960470378385</v>
+        <v>0.4915611953197064</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>475100</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>441640</v>
+        <v>438885</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>508632</v>
+        <v>513382</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3397585388031482</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3158298227466848</v>
+        <v>0.3138597545077463</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3637383505884993</v>
+        <v>0.3671349875810699</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>301</v>
@@ -5263,19 +5263,19 @@
         <v>306160</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>278481</v>
+        <v>278255</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>337403</v>
+        <v>337462</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2989081920754002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2718848339657935</v>
+        <v>0.2716641273361199</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3294107632382607</v>
+        <v>0.3294687932244848</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>744</v>
@@ -5284,19 +5284,19 @@
         <v>781260</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>732723</v>
+        <v>737584</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>829072</v>
+        <v>829367</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3224873123058641</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3024522215344857</v>
+        <v>0.3044587726153931</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3422229220590031</v>
+        <v>0.3423448953544781</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>233959</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>204631</v>
+        <v>206700</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>259564</v>
+        <v>261982</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1673113633486826</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1463375842340539</v>
+        <v>0.1478171082287834</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.185621896870244</v>
+        <v>0.1873508563121924</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>113</v>
@@ -5334,19 +5334,19 @@
         <v>113447</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>94073</v>
+        <v>93565</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>132513</v>
+        <v>133267</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1107601651620486</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09184451971694509</v>
+        <v>0.09134862928552694</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.12937450024264</v>
+        <v>0.1301101469946643</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>331</v>
@@ -5355,19 +5355,19 @@
         <v>347407</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>313940</v>
+        <v>308706</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>385699</v>
+        <v>380241</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1434019321978642</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1295877445435951</v>
+        <v>0.1274269849723798</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1592080868386462</v>
+        <v>0.1569553381318013</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>105006</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>84735</v>
+        <v>84530</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>126128</v>
+        <v>126203</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07509260946359751</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06059630225506766</v>
+        <v>0.06045007255177876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0901979854695408</v>
+        <v>0.09025172389122475</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -5405,19 +5405,19 @@
         <v>50426</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36920</v>
+        <v>38062</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66476</v>
+        <v>66559</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04923184728584066</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03604568590322651</v>
+        <v>0.03716002894553237</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06490171822991439</v>
+        <v>0.06498269878034668</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>144</v>
@@ -5426,19 +5426,19 @@
         <v>155432</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>133281</v>
+        <v>130801</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>181291</v>
+        <v>183290</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06415886919595261</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05501538481299201</v>
+        <v>0.05399171465843936</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07483285863925634</v>
+        <v>0.0756580680959285</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>31313</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21608</v>
+        <v>21336</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43020</v>
+        <v>42820</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3616441051253991</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2495602638702781</v>
+        <v>0.2464173248504528</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4968570355192881</v>
+        <v>0.4945497035671655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -5790,19 +5790,19 @@
         <v>20388</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14900</v>
+        <v>14686</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26559</v>
+        <v>26010</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4622132387051983</v>
+        <v>0.4622132387051982</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3378099587682049</v>
+        <v>0.332958697643405</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6021144800611469</v>
+        <v>0.5896818129602517</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -5811,19 +5811,19 @@
         <v>51700</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39720</v>
+        <v>39426</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65381</v>
+        <v>63662</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3955864659894143</v>
+        <v>0.3955864659894144</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3039217944653037</v>
+        <v>0.301672239347041</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5002621028987446</v>
+        <v>0.4871127483767667</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>38948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28746</v>
+        <v>28516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50432</v>
+        <v>50426</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4498336503144153</v>
+        <v>0.4498336503144152</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3320049892464215</v>
+        <v>0.3293484430387881</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5824638825433818</v>
+        <v>0.5823949999957968</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -5861,19 +5861,19 @@
         <v>22406</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16536</v>
+        <v>16995</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27783</v>
+        <v>28190</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5079726047205506</v>
+        <v>0.5079726047205507</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3748815051939011</v>
+        <v>0.3853013736748589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6298601344650985</v>
+        <v>0.6391068427904052</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -5882,19 +5882,19 @@
         <v>61355</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46978</v>
+        <v>49470</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72749</v>
+        <v>74188</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4694557083004648</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3594542850545605</v>
+        <v>0.3785209018525642</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5566406378422752</v>
+        <v>0.5676517162704766</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>13756</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6859</v>
+        <v>7077</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22751</v>
+        <v>23888</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1588715392136687</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07922093420415273</v>
+        <v>0.08173558792510785</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2627594574452261</v>
+        <v>0.2758912149378293</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4524</v>
+        <v>3995</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02981415657425094</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1025706033159876</v>
+        <v>0.09057116674684226</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -5953,19 +5953,19 @@
         <v>15071</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8309</v>
+        <v>8261</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24744</v>
+        <v>25201</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1153143154633359</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06357661183911294</v>
+        <v>0.0632112456877947</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1893276094787849</v>
+        <v>0.192827386729892</v>
       </c>
     </row>
     <row r="7">
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8352</v>
+        <v>9615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02965070534651696</v>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09646396857620314</v>
+        <v>0.1110437698358574</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7958</v>
+        <v>8016</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01964351024678489</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06088946774060728</v>
+        <v>0.06133283076557012</v>
       </c>
     </row>
     <row r="8">
@@ -6120,19 +6120,19 @@
         <v>213774</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>187913</v>
+        <v>188736</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>239989</v>
+        <v>243264</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3459078110328309</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3040626191288414</v>
+        <v>0.3053928484470412</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3883263648538756</v>
+        <v>0.3936259622068258</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>291</v>
@@ -6141,19 +6141,19 @@
         <v>226441</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>206990</v>
+        <v>206638</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>243674</v>
+        <v>246237</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5045304354728782</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.461190612243992</v>
+        <v>0.4604059076832192</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5429253415828108</v>
+        <v>0.5486376879627497</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>467</v>
@@ -6162,19 +6162,19 @@
         <v>440215</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>407921</v>
+        <v>405571</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>474995</v>
+        <v>472204</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4126407690622548</v>
+        <v>0.4126407690622547</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3823692242465839</v>
+        <v>0.3801666280991304</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4452417643021296</v>
+        <v>0.4426259934086764</v>
       </c>
     </row>
     <row r="10">
@@ -6191,19 +6191,19 @@
         <v>287110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>258941</v>
+        <v>258856</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>316339</v>
+        <v>312817</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4645731273186943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.418992146630135</v>
+        <v>0.41885405061319</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5118683778419767</v>
+        <v>0.5061686565926484</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>231</v>
@@ -6212,19 +6212,19 @@
         <v>163546</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>145277</v>
+        <v>145435</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>182226</v>
+        <v>182587</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3643934665865813</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3236886643327928</v>
+        <v>0.3240415242119026</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4060159967903392</v>
+        <v>0.4068196918195983</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>484</v>
@@ -6233,19 +6233,19 @@
         <v>450656</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>418788</v>
+        <v>420272</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>482195</v>
+        <v>482692</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4224272788394015</v>
+        <v>0.4224272788394013</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3925555541963778</v>
+        <v>0.3939462675541347</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4519904442010808</v>
+        <v>0.4524569430901448</v>
       </c>
     </row>
     <row r="11">
@@ -6262,19 +6262,19 @@
         <v>77735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59276</v>
+        <v>59732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>97755</v>
+        <v>97271</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1257833135389198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09591378505195043</v>
+        <v>0.09665270611681663</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1581780961764155</v>
+        <v>0.1573946498993355</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -6283,19 +6283,19 @@
         <v>36630</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26716</v>
+        <v>26786</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49831</v>
+        <v>50401</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08161436523553793</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05952456244173883</v>
+        <v>0.05968248063556787</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1110272648294024</v>
+        <v>0.112297296666488</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>106</v>
@@ -6304,19 +6304,19 @@
         <v>114365</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>94881</v>
+        <v>93231</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>138330</v>
+        <v>139716</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.107201320057609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0889375012155091</v>
+        <v>0.08739076433513863</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1296651160420472</v>
+        <v>0.1309647320919285</v>
       </c>
     </row>
     <row r="12">
@@ -6333,19 +6333,19 @@
         <v>39389</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26790</v>
+        <v>26191</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57120</v>
+        <v>55659</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06373574810955496</v>
+        <v>0.06373574810955497</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04334844344302323</v>
+        <v>0.04237955961663435</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0924264362402136</v>
+        <v>0.09006163868753035</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -6354,19 +6354,19 @@
         <v>22199</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14659</v>
+        <v>13795</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34458</v>
+        <v>32638</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04946173270500259</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03266201919189311</v>
+        <v>0.03073605941663748</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0767748953177023</v>
+        <v>0.07272097329417435</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>52</v>
@@ -6375,19 +6375,19 @@
         <v>61588</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>44638</v>
+        <v>46360</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>81675</v>
+        <v>81944</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05773063204073488</v>
+        <v>0.05773063204073487</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0418418550953866</v>
+        <v>0.04345583235392864</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0765592227306721</v>
+        <v>0.07681120808519878</v>
       </c>
     </row>
     <row r="13">
@@ -6479,19 +6479,19 @@
         <v>167085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151658</v>
+        <v>148853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>184485</v>
+        <v>183904</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6347384273658211</v>
+        <v>0.6347384273658212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5761323664235013</v>
+        <v>0.5654765376632214</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7008400514865318</v>
+        <v>0.6986326562315688</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>175</v>
@@ -6500,19 +6500,19 @@
         <v>133546</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>120739</v>
+        <v>121211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145751</v>
+        <v>147567</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6114811594091761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5528413985629652</v>
+        <v>0.5550016426967749</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6673624025882807</v>
+        <v>0.6756809933257957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>312</v>
@@ -6521,19 +6521,19 @@
         <v>300631</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>278044</v>
+        <v>278747</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>321234</v>
+        <v>321279</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6241923320118107</v>
+        <v>0.6241923320118108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5772960866864739</v>
+        <v>0.5787548410349178</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.666969649995874</v>
+        <v>0.667063919558326</v>
       </c>
     </row>
     <row r="15">
@@ -6550,19 +6550,19 @@
         <v>69804</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>54163</v>
+        <v>55055</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>85094</v>
+        <v>86101</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2651799833138319</v>
+        <v>0.2651799833138318</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2057605340949442</v>
+        <v>0.209146634139503</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3232622854864216</v>
+        <v>0.3270901282264531</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>90</v>
@@ -6571,19 +6571,19 @@
         <v>63187</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>51893</v>
+        <v>50834</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>75837</v>
+        <v>75018</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2893207888373066</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2376073306579548</v>
+        <v>0.2327603367101178</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3472418156306131</v>
+        <v>0.3434937595806182</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>157</v>
@@ -6592,19 +6592,19 @@
         <v>132991</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>112892</v>
+        <v>114743</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>153507</v>
+        <v>153392</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2761267220901912</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2343938755106476</v>
+        <v>0.2382385883296688</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3187216303565623</v>
+        <v>0.3184844577671658</v>
       </c>
     </row>
     <row r="16">
@@ -6621,19 +6621,19 @@
         <v>17467</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10312</v>
+        <v>9881</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28578</v>
+        <v>27814</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06635376403415356</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03917274305902587</v>
+        <v>0.03753753866423181</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1085664954612982</v>
+        <v>0.1056641381136611</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -6642,19 +6642,19 @@
         <v>9762</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5496</v>
+        <v>5444</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15954</v>
+        <v>15615</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04469641237662369</v>
+        <v>0.04469641237662368</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02516292964540618</v>
+        <v>0.02492495821159812</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07304928758384122</v>
+        <v>0.07149733257748062</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -6663,19 +6663,19 @@
         <v>27228</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18032</v>
+        <v>18966</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38864</v>
+        <v>38651</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05653315672458404</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03743880279376742</v>
+        <v>0.03937936035216082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08069315318542504</v>
+        <v>0.08025061113795905</v>
       </c>
     </row>
     <row r="17">
@@ -6692,19 +6692,19 @@
         <v>8878</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3942</v>
+        <v>3353</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18085</v>
+        <v>17579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03372782528619347</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01497436329292271</v>
+        <v>0.01273841514270726</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06870217221807977</v>
+        <v>0.06677990227871032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -6713,19 +6713,19 @@
         <v>11903</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7128</v>
+        <v>7183</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19591</v>
+        <v>19692</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05450163937689345</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03263707810339344</v>
+        <v>0.03289127849071274</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0897044122601626</v>
+        <v>0.09016572058667222</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -6734,19 +6734,19 @@
         <v>20781</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13459</v>
+        <v>13330</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32771</v>
+        <v>31728</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04314778917341398</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02794525432055318</v>
+        <v>0.02767747078843897</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06804225792138778</v>
+        <v>0.06587608992142037</v>
       </c>
     </row>
     <row r="18">
@@ -6838,19 +6838,19 @@
         <v>412172</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>378314</v>
+        <v>374851</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>444833</v>
+        <v>447871</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.42587314842568</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3908905488916442</v>
+        <v>0.3873120946469909</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4596201804049523</v>
+        <v>0.4627597482579299</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>493</v>
@@ -6859,19 +6859,19 @@
         <v>380375</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>355418</v>
+        <v>354132</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>403288</v>
+        <v>405961</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5347434643645794</v>
+        <v>0.5347434643645793</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4996570273548837</v>
+        <v>0.4978504596104325</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5669545731101733</v>
+        <v>0.5707124736946578</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>831</v>
@@ -6880,19 +6880,19 @@
         <v>792547</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>749030</v>
+        <v>748765</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>833734</v>
+        <v>835485</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4719928995145773</v>
+        <v>0.4719928995145772</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4460765895373969</v>
+        <v>0.4459190418760431</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4965214695117222</v>
+        <v>0.4975642931013191</v>
       </c>
     </row>
     <row r="20">
@@ -6909,19 +6909,19 @@
         <v>395863</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>362375</v>
+        <v>359518</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>426665</v>
+        <v>430389</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4090225999228905</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3744208728313567</v>
+        <v>0.3714691916069355</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.440847937918958</v>
+        <v>0.4446959246883525</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>353</v>
@@ -6930,19 +6930,19 @@
         <v>249139</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>227166</v>
+        <v>226725</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273710</v>
+        <v>272570</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3502472351268971</v>
+        <v>0.350247235126897</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3193575529685405</v>
+        <v>0.3187365368774187</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3847902076914768</v>
+        <v>0.3831873463266167</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>707</v>
@@ -6951,19 +6951,19 @@
         <v>645002</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>603168</v>
+        <v>601822</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>689563</v>
+        <v>685429</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.384124121663016</v>
+        <v>0.3841241216630161</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.359210564373909</v>
+        <v>0.3584089610055007</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4106618327755011</v>
+        <v>0.408200271116654</v>
       </c>
     </row>
     <row r="21">
@@ -6980,19 +6980,19 @@
         <v>108957</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>88851</v>
+        <v>87906</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>133059</v>
+        <v>133643</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1125795198558436</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09180413358753756</v>
+        <v>0.09082785770504689</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1374821323146695</v>
+        <v>0.1380860151346051</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>58</v>
@@ -7001,19 +7001,19 @@
         <v>47707</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36249</v>
+        <v>36361</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>61364</v>
+        <v>62120</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.06706729251907424</v>
+        <v>0.06706729251907423</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05095977641708824</v>
+        <v>0.05111720994557524</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08626768545807167</v>
+        <v>0.08732986889688636</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>148</v>
@@ -7022,19 +7022,19 @@
         <v>156664</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>132016</v>
+        <v>132495</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>185123</v>
+        <v>185424</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.09329958502538779</v>
+        <v>0.09329958502538778</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07862053324134029</v>
+        <v>0.0789057506138936</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.110248109318075</v>
+        <v>0.1104270514830805</v>
       </c>
     </row>
     <row r="22">
@@ -7051,19 +7051,19 @@
         <v>50835</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34790</v>
+        <v>37276</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68899</v>
+        <v>72851</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05252473179558592</v>
+        <v>0.05252473179558593</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03594669217842301</v>
+        <v>0.03851510857392891</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07118934198833536</v>
+        <v>0.07527243968960215</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -7072,19 +7072,19 @@
         <v>34102</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24232</v>
+        <v>25053</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46769</v>
+        <v>47030</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04794200798944939</v>
+        <v>0.04794200798944936</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03406589818789678</v>
+        <v>0.03522003506421368</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06574975576496091</v>
+        <v>0.06611563558179995</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -7093,19 +7093,19 @@
         <v>84937</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64641</v>
+        <v>66873</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107738</v>
+        <v>106278</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05058339379701891</v>
+        <v>0.0505833937970189</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03849634540780564</v>
+        <v>0.03982540832966013</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06416242220435613</v>
+        <v>0.06329244814704003</v>
       </c>
     </row>
     <row r="23">
